--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9952863626627502</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.009158055596972</v>
+      </c>
+      <c r="D16">
+        <v>0.9467888361041986</v>
+      </c>
+      <c r="E16">
+        <v>1.006318362769948</v>
+      </c>
+      <c r="F16">
+        <v>1.009158055596972</v>
+      </c>
+      <c r="G16">
+        <v>0.9675593721181777</v>
+      </c>
+      <c r="H16">
+        <v>1.021198791407562</v>
+      </c>
+      <c r="I16">
+        <v>1.006318362769948</v>
+      </c>
+      <c r="J16">
+        <v>0.9467888361041986</v>
+      </c>
+      <c r="K16">
+        <v>0.9765535994370733</v>
+      </c>
+      <c r="L16">
+        <v>0.9928558275170226</v>
+      </c>
+      <c r="M16">
+        <v>0.9928902967944677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.009158055596972</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9856679999999993</v>
+        <v>1.009158055596972</v>
       </c>
       <c r="D10">
-        <v>0.9388279999999993</v>
+        <v>0.9467888361041986</v>
       </c>
       <c r="E10">
-        <v>1.018359999999998</v>
+        <v>1.006318362769948</v>
       </c>
       <c r="F10">
-        <v>0.9856679999999993</v>
+        <v>1.009158055596972</v>
       </c>
       <c r="G10">
-        <v>0.9613959999999996</v>
+        <v>0.9675593721181777</v>
       </c>
       <c r="H10">
-        <v>1.065063999999997</v>
+        <v>1.021198791407562</v>
       </c>
       <c r="I10">
-        <v>1.014412</v>
+        <v>1.006318362769948</v>
       </c>
       <c r="J10">
-        <v>0.9388279999999993</v>
+        <v>0.9467888361041986</v>
       </c>
       <c r="K10">
-        <v>0.9785939999999986</v>
+        <v>0.9765535994370733</v>
       </c>
       <c r="L10">
-        <v>0.982130999999999</v>
+        <v>0.9928558275170226</v>
       </c>
       <c r="M10">
-        <v>0.9972879999999987</v>
+        <v>0.9928902967944677</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.01</v>
+        <v>0.987438734707518</v>
       </c>
       <c r="D11">
-        <v>0.82</v>
+        <v>0.9369418100816518</v>
       </c>
       <c r="E11">
-        <v>1.05</v>
+        <v>1.018681625215667</v>
       </c>
       <c r="F11">
-        <v>1.01</v>
+        <v>0.987438734707518</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.953827199950085</v>
       </c>
       <c r="H11">
-        <v>1.15</v>
+        <v>1.065746515142105</v>
       </c>
       <c r="I11">
-        <v>1.05</v>
+        <v>1.008652226213975</v>
       </c>
       <c r="J11">
-        <v>0.82</v>
+        <v>0.9369418100816518</v>
       </c>
       <c r="K11">
-        <v>0.9350000000000001</v>
+        <v>0.9778117176486592</v>
       </c>
       <c r="L11">
-        <v>0.9724999999999999</v>
+        <v>0.9826252261780886</v>
       </c>
       <c r="M11">
-        <v>0.9966666666666666</v>
+        <v>0.9952146852185003</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004772877311998</v>
+        <v>0.9872592349448268</v>
       </c>
       <c r="D12">
-        <v>0.8923572477952002</v>
+        <v>0.9381198052881049</v>
       </c>
       <c r="E12">
-        <v>1.026930521907197</v>
+        <v>1.018338768214655</v>
       </c>
       <c r="F12">
-        <v>1.004772877311998</v>
+        <v>0.9872592349448268</v>
       </c>
       <c r="G12">
-        <v>0.9389958793216002</v>
+        <v>0.9545082093965346</v>
       </c>
       <c r="H12">
-        <v>1.084445758054393</v>
+        <v>1.064807971282589</v>
       </c>
       <c r="I12">
-        <v>1.026323704422401</v>
+        <v>1.008330331832007</v>
       </c>
       <c r="J12">
-        <v>0.8923572477952002</v>
+        <v>0.9381198052881049</v>
       </c>
       <c r="K12">
-        <v>0.9596438848511987</v>
+        <v>0.9782292867513802</v>
       </c>
       <c r="L12">
-        <v>0.9822083810815982</v>
+        <v>0.9827442608481034</v>
       </c>
       <c r="M12">
-        <v>0.9956376648021316</v>
+        <v>0.9952273868264528</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9939769880956217</v>
+        <v>0.9873896216970526</v>
       </c>
       <c r="D13">
-        <v>0.9952563897095315</v>
+        <v>0.9371995040281037</v>
       </c>
       <c r="E13">
-        <v>0.9951300790571098</v>
+        <v>1.018615797108884</v>
       </c>
       <c r="F13">
-        <v>0.9939769880956217</v>
+        <v>0.9873896216970526</v>
       </c>
       <c r="G13">
-        <v>0.9944415481547305</v>
+        <v>0.9539465538938241</v>
       </c>
       <c r="H13">
-        <v>0.9955647648331951</v>
+        <v>1.065582285359906</v>
       </c>
       <c r="I13">
-        <v>0.9948646223560362</v>
+        <v>1.008560185650946</v>
       </c>
       <c r="J13">
-        <v>0.9952563897095315</v>
+        <v>0.9371995040281037</v>
       </c>
       <c r="K13">
-        <v>0.9951932343833206</v>
+        <v>0.9779076505684938</v>
       </c>
       <c r="L13">
-        <v>0.9945851112394711</v>
+        <v>0.9826486361327731</v>
       </c>
       <c r="M13">
-        <v>0.9948723987010375</v>
+        <v>0.9952156579564527</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9946695785975243</v>
+        <v>0.9856679999999993</v>
       </c>
       <c r="D14">
-        <v>1.000320075102293</v>
+        <v>0.9388279999999993</v>
       </c>
       <c r="E14">
-        <v>0.9925012053405723</v>
+        <v>1.018359999999998</v>
       </c>
       <c r="F14">
-        <v>0.9946695785975243</v>
+        <v>0.9856679999999993</v>
       </c>
       <c r="G14">
-        <v>0.9990648978242381</v>
+        <v>0.9613959999999996</v>
       </c>
       <c r="H14">
-        <v>0.9876086590120071</v>
+        <v>1.065063999999997</v>
       </c>
       <c r="I14">
-        <v>0.9929955919883134</v>
+        <v>1.014412</v>
       </c>
       <c r="J14">
-        <v>1.000320075102293</v>
+        <v>0.9388279999999993</v>
       </c>
       <c r="K14">
-        <v>0.9964106402214328</v>
+        <v>0.9785939999999986</v>
       </c>
       <c r="L14">
-        <v>0.9955401094094786</v>
+        <v>0.982130999999999</v>
       </c>
       <c r="M14">
-        <v>0.9945266679774915</v>
+        <v>0.9972879999999987</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.990375740916513</v>
+        <v>1.01</v>
       </c>
       <c r="D15">
-        <v>1.016279066071865</v>
+        <v>0.82</v>
       </c>
       <c r="E15">
-        <v>0.989416315051265</v>
+        <v>1.05</v>
       </c>
       <c r="F15">
-        <v>0.990375740916513</v>
+        <v>1.01</v>
       </c>
       <c r="G15">
-        <v>1.0073772751943</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.9792846673972375</v>
+        <v>1.15</v>
       </c>
       <c r="I15">
-        <v>0.9889851113453192</v>
+        <v>1.05</v>
       </c>
       <c r="J15">
-        <v>1.016279066071865</v>
+        <v>0.82</v>
       </c>
       <c r="K15">
-        <v>1.002847690561565</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="L15">
-        <v>0.9966117157390391</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="M15">
-        <v>0.9952863626627502</v>
+        <v>0.9966666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.009158055596972</v>
+        <v>1.004772877311998</v>
       </c>
       <c r="D16">
-        <v>0.9467888361041986</v>
+        <v>0.8923572477952002</v>
       </c>
       <c r="E16">
-        <v>1.006318362769948</v>
+        <v>1.026930521907197</v>
       </c>
       <c r="F16">
-        <v>1.009158055596972</v>
+        <v>1.004772877311998</v>
       </c>
       <c r="G16">
-        <v>0.9675593721181777</v>
+        <v>0.9389958793216002</v>
       </c>
       <c r="H16">
-        <v>1.021198791407562</v>
+        <v>1.084445758054393</v>
       </c>
       <c r="I16">
-        <v>1.006318362769948</v>
+        <v>1.026323704422401</v>
       </c>
       <c r="J16">
-        <v>0.9467888361041986</v>
+        <v>0.8923572477952002</v>
       </c>
       <c r="K16">
-        <v>0.9765535994370733</v>
+        <v>0.9596438848511987</v>
       </c>
       <c r="L16">
-        <v>0.9928558275170226</v>
+        <v>0.9822083810815982</v>
       </c>
       <c r="M16">
-        <v>0.9928902967944677</v>
+        <v>0.9956376648021316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9939769880956217</v>
+      </c>
+      <c r="D17">
+        <v>0.9952563897095315</v>
+      </c>
+      <c r="E17">
+        <v>0.9951300790571098</v>
+      </c>
+      <c r="F17">
+        <v>0.9939769880956217</v>
+      </c>
+      <c r="G17">
+        <v>0.9944415481547305</v>
+      </c>
+      <c r="H17">
+        <v>0.9955647648331951</v>
+      </c>
+      <c r="I17">
+        <v>0.9948646223560362</v>
+      </c>
+      <c r="J17">
+        <v>0.9952563897095315</v>
+      </c>
+      <c r="K17">
+        <v>0.9951932343833206</v>
+      </c>
+      <c r="L17">
+        <v>0.9945851112394711</v>
+      </c>
+      <c r="M17">
+        <v>0.9948723987010375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9946695785975243</v>
+      </c>
+      <c r="D18">
+        <v>1.000320075102293</v>
+      </c>
+      <c r="E18">
+        <v>0.9925012053405723</v>
+      </c>
+      <c r="F18">
+        <v>0.9946695785975243</v>
+      </c>
+      <c r="G18">
+        <v>0.9990648978242381</v>
+      </c>
+      <c r="H18">
+        <v>0.9876086590120071</v>
+      </c>
+      <c r="I18">
+        <v>0.9929955919883134</v>
+      </c>
+      <c r="J18">
+        <v>1.000320075102293</v>
+      </c>
+      <c r="K18">
+        <v>0.9964106402214328</v>
+      </c>
+      <c r="L18">
+        <v>0.9955401094094786</v>
+      </c>
+      <c r="M18">
+        <v>0.9945266679774915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.990375740916513</v>
+      </c>
+      <c r="D19">
+        <v>1.016279066071865</v>
+      </c>
+      <c r="E19">
+        <v>0.989416315051265</v>
+      </c>
+      <c r="F19">
+        <v>0.990375740916513</v>
+      </c>
+      <c r="G19">
+        <v>1.0073772751943</v>
+      </c>
+      <c r="H19">
+        <v>0.9792846673972375</v>
+      </c>
+      <c r="I19">
+        <v>0.9889851113453192</v>
+      </c>
+      <c r="J19">
+        <v>1.016279066071865</v>
+      </c>
+      <c r="K19">
+        <v>1.002847690561565</v>
+      </c>
+      <c r="L19">
+        <v>0.9966117157390391</v>
+      </c>
+      <c r="M19">
+        <v>0.9952863626627502</v>
       </c>
     </row>
   </sheetData>
